--- a/Osativa/05_excel/bs12a.xlsx
+++ b/Osativa/05_excel/bs12a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/D6309596-DC8D-4933-96AB-EDD99C9B5270/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9ED7A25A-1F9E-4098-80D8-38B498BC522F/192.168.10.18/disk6/pzhou/projects/barn/Osativa/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D37AA-7FEE-B142-B72E-5ADAFBEC3054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6EDAE6-2E5C-0745-9DD1-377B3CD66F53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1680" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="4400" yWindow="1880" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
   <si>
     <t>SampleID</t>
   </si>
@@ -61,16 +61,301 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>SRR507099</t>
+  </si>
+  <si>
+    <t>SRR507098</t>
+  </si>
+  <si>
+    <t>SRR507097</t>
+  </si>
+  <si>
+    <t>SRR507096</t>
+  </si>
+  <si>
+    <t>SRR507095</t>
+  </si>
+  <si>
+    <t>SRR507094</t>
+  </si>
+  <si>
+    <t>SRR507093</t>
+  </si>
+  <si>
+    <t>SRR507092</t>
+  </si>
+  <si>
+    <t>SRR507091</t>
+  </si>
+  <si>
+    <t>SRR507101</t>
+  </si>
+  <si>
+    <t>SRR507100</t>
+  </si>
+  <si>
+    <t>SRR507080</t>
+  </si>
+  <si>
+    <t>SRR507081</t>
+  </si>
+  <si>
+    <t>SRR507083</t>
+  </si>
+  <si>
+    <t>SRR507085</t>
+  </si>
+  <si>
+    <t>SRR507086</t>
+  </si>
+  <si>
+    <t>SRR507089</t>
+  </si>
+  <si>
+    <t>SRR507090</t>
+  </si>
+  <si>
+    <t>SRR507088</t>
+  </si>
+  <si>
+    <t>SRR507087</t>
+  </si>
+  <si>
+    <t>SRR507084</t>
+  </si>
+  <si>
+    <t>SRR507082</t>
+  </si>
+  <si>
+    <t>SRR949553</t>
+  </si>
+  <si>
+    <t>SRR949554</t>
+  </si>
+  <si>
+    <t>SRR949555</t>
+  </si>
+  <si>
+    <t>SRR949556</t>
+  </si>
+  <si>
+    <t>SRR949557</t>
+  </si>
+  <si>
+    <t>SRR949558</t>
+  </si>
+  <si>
+    <t>SRR949559</t>
+  </si>
+  <si>
+    <t>SRR949560</t>
+  </si>
+  <si>
+    <t>SRR949561</t>
+  </si>
+  <si>
+    <t>SRR949562</t>
+  </si>
+  <si>
+    <t>SRR949542</t>
+  </si>
+  <si>
+    <t>SRR949543</t>
+  </si>
+  <si>
+    <t>SRR949544</t>
+  </si>
+  <si>
+    <t>SRR949545</t>
+  </si>
+  <si>
+    <t>SRR949546</t>
+  </si>
+  <si>
+    <t>SRR949547</t>
+  </si>
+  <si>
+    <t>SRR949548</t>
+  </si>
+  <si>
+    <t>SRR949549</t>
+  </si>
+  <si>
+    <t>SRR949550</t>
+  </si>
+  <si>
+    <t>SRR949551</t>
+  </si>
+  <si>
+    <t>SRR949552</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>s34</t>
+  </si>
+  <si>
+    <t>s35</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>s37</t>
+  </si>
+  <si>
+    <t>s38</t>
+  </si>
+  <si>
+    <t>s39</t>
+  </si>
+  <si>
+    <t>s40</t>
+  </si>
+  <si>
+    <t>s41</t>
+  </si>
+  <si>
+    <t>s42</t>
+  </si>
+  <si>
+    <t>s43</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Nip</t>
+  </si>
+  <si>
+    <t>R9311</t>
+  </si>
+  <si>
+    <t>R9311xNip</t>
+  </si>
+  <si>
+    <t>NipxR9311</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +709,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,28 +726,1150 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>47241739</v>
+      </c>
+      <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>41737454</v>
+      </c>
+      <c r="J3">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4">
+        <v>41460137</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>42325506</v>
+      </c>
+      <c r="J5">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>42740052</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>42962642</v>
+      </c>
+      <c r="J7">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>136139178</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>51399875</v>
+      </c>
+      <c r="J9">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>36416940</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>51092295</v>
+      </c>
+      <c r="J11">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>51413351</v>
+      </c>
+      <c r="J12">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>35144190</v>
+      </c>
+      <c r="J13">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>46911689</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>34601854</v>
+      </c>
+      <c r="J15">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>35233368</v>
+      </c>
+      <c r="J16">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17">
+        <v>37998379</v>
+      </c>
+      <c r="J17">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>47137743</v>
+      </c>
+      <c r="J18">
+        <v>55</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19">
+        <v>46649744</v>
+      </c>
+      <c r="J19">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20">
+        <v>47319756</v>
+      </c>
+      <c r="J20">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21">
+        <v>47924659</v>
+      </c>
+      <c r="J21">
+        <v>55</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>35358560</v>
+      </c>
+      <c r="J22">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <v>180178958</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>34433753</v>
+      </c>
+      <c r="J24">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>31803134</v>
+      </c>
+      <c r="J25">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>30191111</v>
+      </c>
+      <c r="J26">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>34470613</v>
+      </c>
+      <c r="J27">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28">
+        <v>31874834</v>
+      </c>
+      <c r="J28">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29">
+        <v>30487703</v>
+      </c>
+      <c r="J29">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30">
+        <v>29625709</v>
+      </c>
+      <c r="J30">
+        <v>55</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>31165036</v>
+      </c>
+      <c r="J31">
+        <v>55</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32">
+        <v>38774940</v>
+      </c>
+      <c r="J32">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33">
+        <v>39876374</v>
+      </c>
+      <c r="J33">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34">
+        <v>37462741</v>
+      </c>
+      <c r="J34">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35">
+        <v>48343708</v>
+      </c>
+      <c r="J35">
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36">
+        <v>44322033</v>
+      </c>
+      <c r="J36">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>48720712</v>
+      </c>
+      <c r="J37">
+        <v>55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38">
+        <v>39662399</v>
+      </c>
+      <c r="J38">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39">
+        <v>39044271</v>
+      </c>
+      <c r="J39">
+        <v>55</v>
+      </c>
+      <c r="K39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <v>39065292</v>
+      </c>
+      <c r="J40">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41">
+        <v>39348004</v>
+      </c>
+      <c r="J41">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42">
+        <v>41683516</v>
+      </c>
+      <c r="J42">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43">
+        <v>48156271</v>
+      </c>
+      <c r="J43">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44">
+        <v>47831793</v>
+      </c>
+      <c r="J44">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>